--- a/profit.xlsx
+++ b/profit.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>مبلغ در نظر گرفته شده برای سود</t>
   </si>
@@ -370,16 +371,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -428,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -455,7 +456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -482,7 +483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -509,7 +510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -536,7 +537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -563,7 +564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -590,7 +591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -617,7 +618,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -644,7 +645,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -671,7 +672,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -698,7 +699,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -725,7 +726,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -752,7 +753,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -779,7 +780,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -806,7 +807,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -833,7 +834,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -860,7 +861,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -887,7 +888,7 @@
         <v>10384</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -914,7 +915,7 @@
         <v>15579</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -939,6 +940,587 @@
       <c r="G21">
         <f>SUM(F2:F21)</f>
         <v>23371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(A2/(B2-1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <f>(D2*B2)-D2</f>
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <f>D2</f>
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <f>SUM(F2:F2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>ROUND((G2+A2)/(B2-1),0)</f>
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <f>(D3*B3)-D3</f>
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <f>D3</f>
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <f>SUM(F2:F3)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>ROUND((G3+A3)/(B3-1),0)</f>
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <f>(D4*B4)-D4</f>
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <f>D4</f>
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <f>SUM(F2:F4)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D21" si="0">ROUND((G4+A4)/(B4-1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E21" si="1">(D5*B5)-D5</f>
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F21" si="2">D5</f>
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f>SUM(F2:F5)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="G6">
+        <f>SUM(F2:F6)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="G7">
+        <f>SUM(F2:F7)</f>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>586</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="G8">
+        <f>SUM(F2:F8)</f>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>878</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="G9">
+        <f>SUM(F2:F9)</f>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>659</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1318</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>659</v>
+      </c>
+      <c r="G10">
+        <f>SUM(F2:F10)</f>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>988</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1976</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>988</v>
+      </c>
+      <c r="G11">
+        <f>SUM(F2:F11)</f>
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1482</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2964</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1482</v>
+      </c>
+      <c r="G12">
+        <f>SUM(F2:F12)</f>
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2223</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>4446</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2223</v>
+      </c>
+      <c r="G13">
+        <f>SUM(F2:F13)</f>
+        <v>6639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3335</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>6670</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3335</v>
+      </c>
+      <c r="G14">
+        <f>SUM(F2:F14)</f>
+        <v>9974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>10004</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>5002</v>
+      </c>
+      <c r="G15">
+        <f>SUM(F2:F15)</f>
+        <v>14976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>7503</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>15006</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>7503</v>
+      </c>
+      <c r="G16">
+        <f>SUM(F2:F16)</f>
+        <v>22479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>11255</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>22510</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>11255</v>
+      </c>
+      <c r="G17">
+        <f>SUM(F2:F17)</f>
+        <v>33734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>16882</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>33764</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>16882</v>
+      </c>
+      <c r="G18">
+        <f>SUM(F2:F18)</f>
+        <v>50616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>25323</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>50646</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>25323</v>
+      </c>
+      <c r="G19">
+        <f>SUM(F2:F19)</f>
+        <v>75939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>37985</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>75970</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>37985</v>
+      </c>
+      <c r="G20">
+        <f>SUM(F2:F20)</f>
+        <v>113924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>56977</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>113954</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>56977</v>
+      </c>
+      <c r="G21">
+        <f>SUM(F2:F21)</f>
+        <v>170901</v>
       </c>
     </row>
   </sheetData>
